--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_3.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_3.xlsx
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1216.37109375</v>
+        <v>118.740234375</v>
       </c>
       <c r="H2">
         <v>106.2099609375</v>
       </c>
       <c r="I2">
-        <v>1110.1611328125</v>
+        <v>12.5302734375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -530,13 +530,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1044.509765625</v>
+        <v>106.2099609375</v>
       </c>
       <c r="H3">
         <v>118.740234375</v>
       </c>
       <c r="I3">
-        <v>925.76953125</v>
+        <v>-12.5302734375</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1158.7392578125</v>
+        <v>111.91015625</v>
       </c>
       <c r="H2">
         <v>93.509765625</v>
       </c>
       <c r="I2">
-        <v>1065.2294921875</v>
+        <v>18.400390625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -639,13 +639,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1155.5400390625</v>
+        <v>93.509765625</v>
       </c>
       <c r="H3">
         <v>111.91015625</v>
       </c>
       <c r="I3">
-        <v>1043.6298828125</v>
+        <v>-18.400390625</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1022.77978515625</v>
+        <v>111.10986328125</v>
       </c>
       <c r="H2">
         <v>103.81005859375</v>
       </c>
       <c r="I2">
-        <v>918.9697265625</v>
+        <v>7.2998046875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1163.760009765625</v>
+        <v>103.81005859375</v>
       </c>
       <c r="H3">
         <v>111.10986328125</v>
       </c>
       <c r="I3">
-        <v>1052.650146484375</v>
+        <v>-7.2998046875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1060.820434570312</v>
+        <v>120.25</v>
       </c>
       <c r="H2">
         <v>111.2099609375</v>
       </c>
       <c r="I2">
-        <v>949.6104736328125</v>
+        <v>9.0400390625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1155.240234375</v>
+        <v>111.2099609375</v>
       </c>
       <c r="H3">
         <v>120.25</v>
       </c>
       <c r="I3">
-        <v>1034.990234375</v>
+        <v>-9.0400390625</v>
       </c>
       <c r="J3">
         <v>2</v>

--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_3.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_3.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Jogo 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Jogo 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Jogo 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Jogo 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Jogo 1 (JG1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Jogo 2 (JG2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Jogo 3 (JG3)" sheetId="3" r:id="rId3"/>
+    <sheet name="Jogo 4 (JG4)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -49,7 +49,7 @@
     <t>Posição</t>
   </si>
   <si>
-    <t>Jogo 1</t>
+    <t>Jogo 1 (JG1)</t>
   </si>
   <si>
     <t>Analove10 ITAQUI GRANDE!!</t>
@@ -58,7 +58,7 @@
     <t>pura bucha /botafogo</t>
   </si>
   <si>
-    <t>Jogo 2</t>
+    <t>Jogo 2 (JG2)</t>
   </si>
   <si>
     <t>Texas Club 2025</t>
@@ -67,7 +67,7 @@
     <t>Super Vasco f.c</t>
   </si>
   <si>
-    <t>Jogo 3</t>
+    <t>Jogo 3 (JG3)</t>
   </si>
   <si>
     <t>KillerColorado</t>
@@ -76,7 +76,7 @@
     <t>Real SCI</t>
   </si>
   <si>
-    <t>Jogo 4</t>
+    <t>Jogo 4 (JG4)</t>
   </si>
   <si>
     <t>Lá do Itaqui</t>

--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_3.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_3.xlsx
@@ -70,10 +70,10 @@
     <t>Jogo 3 (JG3)</t>
   </si>
   <si>
+    <t>Real SCI</t>
+  </si>
+  <si>
     <t>KillerColorado</t>
-  </si>
-  <si>
-    <t>Real SCI</t>
   </si>
   <si>
     <t>Jogo 4 (JG4)</t>
@@ -486,10 +486,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>118.740234375</v>
+        <v>194.14013671875</v>
       </c>
       <c r="H2">
-        <v>106.2099609375</v>
+        <v>167.81005859375</v>
       </c>
       <c r="I2">
-        <v>12.5302734375</v>
+        <v>26.330078125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>106.2099609375</v>
+        <v>167.81005859375</v>
       </c>
       <c r="H3">
-        <v>118.740234375</v>
+        <v>194.14013671875</v>
       </c>
       <c r="I3">
-        <v>-12.5302734375</v>
+        <v>-26.330078125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -604,16 +604,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>111.91015625</v>
+        <v>186.1103515625</v>
       </c>
       <c r="H2">
-        <v>93.509765625</v>
+        <v>175.40966796875</v>
       </c>
       <c r="I2">
-        <v>18.400390625</v>
+        <v>10.70068359375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -627,10 +627,10 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>93.509765625</v>
+        <v>175.40966796875</v>
       </c>
       <c r="H3">
-        <v>111.91015625</v>
+        <v>186.1103515625</v>
       </c>
       <c r="I3">
-        <v>-18.400390625</v>
+        <v>-10.70068359375</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>111.10986328125</v>
+        <v>178.91015625</v>
       </c>
       <c r="H2">
-        <v>103.81005859375</v>
+        <v>175.40966796875</v>
       </c>
       <c r="I2">
-        <v>7.2998046875</v>
+        <v>3.50048828125</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -736,10 +736,10 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>103.81005859375</v>
+        <v>175.40966796875</v>
       </c>
       <c r="H3">
-        <v>111.10986328125</v>
+        <v>178.91015625</v>
       </c>
       <c r="I3">
-        <v>-7.2998046875</v>
+        <v>-3.50048828125</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -813,10 +813,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>120.25</v>
+        <v>189.25</v>
       </c>
       <c r="H2">
-        <v>111.2099609375</v>
+        <v>176.2099609375</v>
       </c>
       <c r="I2">
-        <v>9.0400390625</v>
+        <v>13.0400390625</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -854,16 +854,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>111.2099609375</v>
+        <v>176.2099609375</v>
       </c>
       <c r="H3">
-        <v>120.25</v>
+        <v>189.25</v>
       </c>
       <c r="I3">
-        <v>-9.0400390625</v>
+        <v>-13.0400390625</v>
       </c>
       <c r="J3">
         <v>2</v>
